--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H2">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>685.1555137910433</v>
+        <v>1848.600969695205</v>
       </c>
       <c r="R2">
-        <v>685.1555137910433</v>
+        <v>16637.40872725684</v>
       </c>
       <c r="S2">
-        <v>0.04561447488901791</v>
+        <v>0.09632599544200435</v>
       </c>
       <c r="T2">
-        <v>0.04561447488901791</v>
+        <v>0.09632599544200433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H3">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>657.371845608166</v>
+        <v>1604.354364722393</v>
       </c>
       <c r="R3">
-        <v>657.371845608166</v>
+        <v>14439.18928250154</v>
       </c>
       <c r="S3">
-        <v>0.04376476718158031</v>
+        <v>0.08359891277623292</v>
       </c>
       <c r="T3">
-        <v>0.04376476718158031</v>
+        <v>0.08359891277623289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H4">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>909.2186336872168</v>
+        <v>2243.170069200879</v>
       </c>
       <c r="R4">
-        <v>909.2186336872168</v>
+        <v>20188.53062280791</v>
       </c>
       <c r="S4">
-        <v>0.06053155772690928</v>
+        <v>0.1168860091516184</v>
       </c>
       <c r="T4">
-        <v>0.06053155772690928</v>
+        <v>0.1168860091516184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H5">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>2583.089105668093</v>
+        <v>2910.845455697232</v>
       </c>
       <c r="R5">
-        <v>2583.089105668093</v>
+        <v>26197.60910127509</v>
       </c>
       <c r="S5">
-        <v>0.1719700867539501</v>
+        <v>0.1516769117264399</v>
       </c>
       <c r="T5">
-        <v>0.1719700867539501</v>
+        <v>0.1516769117264399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H6">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>2478.342534774153</v>
+        <v>2526.24968202315</v>
       </c>
       <c r="R6">
-        <v>2478.342534774153</v>
+        <v>22736.24713820835</v>
       </c>
       <c r="S6">
-        <v>0.1649965461028425</v>
+        <v>0.1316365832027282</v>
       </c>
       <c r="T6">
-        <v>0.1649965461028425</v>
+        <v>0.1316365832027282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H7">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>3427.824340714779</v>
+        <v>3532.142149295747</v>
       </c>
       <c r="R7">
-        <v>3427.824340714779</v>
+        <v>31789.27934366172</v>
       </c>
       <c r="S7">
-        <v>0.2282086390115286</v>
+        <v>0.1840511360489395</v>
       </c>
       <c r="T7">
-        <v>0.2282086390115286</v>
+        <v>0.1840511360489395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H8">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>1302.176689189202</v>
+        <v>1468.764403495861</v>
       </c>
       <c r="R8">
-        <v>1302.176689189202</v>
+        <v>13218.87963146274</v>
       </c>
       <c r="S8">
-        <v>0.08669288168087398</v>
+        <v>0.0765336573743373</v>
       </c>
       <c r="T8">
-        <v>0.08669288168087398</v>
+        <v>0.07653365737433729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H9">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>1249.372261114579</v>
+        <v>1274.703746307127</v>
       </c>
       <c r="R9">
-        <v>1249.372261114579</v>
+        <v>11472.33371676414</v>
       </c>
       <c r="S9">
-        <v>0.08317740787973425</v>
+        <v>0.06642163953691489</v>
       </c>
       <c r="T9">
-        <v>0.08317740787973425</v>
+        <v>0.06642163953691486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H10">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>1728.021283245531</v>
+        <v>1782.260424310402</v>
       </c>
       <c r="R10">
-        <v>1728.021283245531</v>
+        <v>16040.34381879362</v>
       </c>
       <c r="S10">
-        <v>0.1150436387735631</v>
+        <v>0.09286915474078465</v>
       </c>
       <c r="T10">
-        <v>0.1150436387735631</v>
+        <v>0.09286915474078464</v>
       </c>
     </row>
   </sheetData>
